--- a/situation data.xlsx
+++ b/situation data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\SNU AI\기초 프로그래밍\project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64B31C-DA79-4ED0-A078-8731AECFC44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A81D6-A045-412C-A29B-480685D9304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,9 +50,6 @@
     <t>철수는 am만큼 공을 던졌고, 영희는 bm만큼 공을 던졌습니다. 철수가 공을 던진 거리는 영희가 공을 던진 거리의 몇 배인지 구해 보세요.</t>
   </si>
   <si>
-    <t>축구공 무게는 akg'이고 야구공 무게는 bkg이다. 축구공 무게는 야구공 무게의 몇 배인지 구해 보세요.</t>
-  </si>
-  <si>
     <t>철수는 am²만큼 바닥을 색칠했고, 영희는 bm²만큼 바닥을 색칠했습니다. 철수가 색칠한 바닥의 넓이는 영희가 색칠한 바닥의 넓이의 몇 배인지 구해 보세요.</t>
   </si>
   <si>
@@ -121,6 +119,10 @@
   </si>
   <si>
     <t>줄 am를 한 번에 bm씩 잘라 매듭을 만들 때 매듭을 최대한 만들고 남는 줄의 길이는 몇 m인지 구해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구공 무게는 akg이고 야구공 무게는 bkg이다. 축구공 무게는 야구공 무게의 몇 배인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B7D572-DFBB-4F75-AA11-1985E1F2627D}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -502,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -513,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -524,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -535,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -543,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -554,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -565,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -573,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -581,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -589,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -597,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -605,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -613,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -621,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -629,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -637,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -645,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -653,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -661,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -669,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -677,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
